--- a/perdidacrediticiaesperada_demo/tabla_final_pérdida_crediticia_esperada.xlsx
+++ b/perdidacrediticiaesperada_demo/tabla_final_pérdida_crediticia_esperada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianm\data-analytics-portfolio-gianmarcomejia\perdidacrediticiaesperada_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27788A-7E0A-4E2C-9E7E-10F93DEE4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0318BDC9-EA1E-41B2-B08F-A19AA8409E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,15 +113,9 @@
     <t>Elemento</t>
   </si>
   <si>
-    <t>Moderada 28 % (vs clásico 26%)</t>
-  </si>
-  <si>
     <t>Métrica de estabilidad promedio</t>
   </si>
   <si>
-    <t>Alta 34.5% (vs modelo de deterioro clásico 26 %)</t>
-  </si>
-  <si>
     <t>Propuesta</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>Umbral</t>
+  </si>
+  <si>
+    <t>Moderada 37.95 % (vs clásico 26%)</t>
+  </si>
+  <si>
+    <t>Alta 44.46% (vs modelo de deterioro clásico 26 %)</t>
   </si>
 </sst>
 </file>
@@ -292,6 +292,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,12 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +614,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,31 +628,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -691,7 +691,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -717,22 +717,22 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -747,7 +747,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -761,8 +761,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,15 +788,15 @@
         <v>0.71</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
         <v>0.5</v>
@@ -804,14 +804,14 @@
       <c r="D15" s="7">
         <v>0.5</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>39</v>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>0.35</v>
